--- a/Metal datas.xlsx
+++ b/Metal datas.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\8. Optimisation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Penel\Documents\Travail\CIRAIG\Maitrise Recherche\11. Rédaction\GitHub Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B70475-47D9-41BD-8AFD-0191A2D2EF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327A7160-FC86-4834-ADFA-48C190E3594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metals data" sheetId="1" r:id="rId1"/>
+    <sheet name="Ref Res" sheetId="4" r:id="rId2"/>
+    <sheet name="Ref Prod" sheetId="2" r:id="rId3"/>
+    <sheet name="Ref RR" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Metals data'!$A$1:$G$1</definedName>
@@ -44,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="150">
   <si>
     <t xml:space="preserve">Metal </t>
   </si>
@@ -257,6 +262,287 @@
   </si>
   <si>
     <t>RR (%) Prod</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Production [t/yr]</t>
+  </si>
+  <si>
+    <t>Original source</t>
+  </si>
+  <si>
+    <t>Mining step considered</t>
+  </si>
+  <si>
+    <t>Review of critical materials for the energy transition, an analysis of global resources and production databases and the state of material circularity</t>
+  </si>
+  <si>
+    <t>[USGS 2021] [BGS 2021]</t>
+  </si>
+  <si>
+    <t>Primary production</t>
+  </si>
+  <si>
+    <t>Mineral commodity Summaries 2023 - US Geological survey, table 5, p.21</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Exclus, car prend en compte la bauxite pas alu final</t>
+  </si>
+  <si>
+    <t>Analysis of Potential for Critical Metal Resource Constraints in the International Energy Agency’s Long-Term Low-Carbon Energy Scenarios, table 7, p.11 (2018)</t>
+  </si>
+  <si>
+    <t>U.S. Geological Survey, 2017</t>
+  </si>
+  <si>
+    <t>65 351 568</t>
+  </si>
+  <si>
+    <t>World mining data 2022, datas for 2020, p.53</t>
+  </si>
+  <si>
+    <t>Losses and lifetime data, SI, production stat for 2019</t>
+  </si>
+  <si>
+    <t>3 601 366</t>
+  </si>
+  <si>
+    <t>By-product (Zn)</t>
+  </si>
+  <si>
+    <t>24 970</t>
+  </si>
+  <si>
+    <t>11 964 982</t>
+  </si>
+  <si>
+    <t>By-product (Cu, Ni)</t>
+  </si>
+  <si>
+    <t>Global metal flows in the energy transition, Table 3, p.230 (2018)</t>
+  </si>
+  <si>
+    <t>[USGS, 2018], [(Habib and Wenzel, 2014); Sverdrup et al. (2017)]</t>
+  </si>
+  <si>
+    <t>Not considered, old data from USGS</t>
+  </si>
+  <si>
+    <t>129 110</t>
+  </si>
+  <si>
+    <t>20 788 363</t>
+  </si>
+  <si>
+    <t>Primary / by-product</t>
+  </si>
+  <si>
+    <t>Sverdrup, H.; Ragnarsdóttir, K.V. Natural Resources in a Planetary Perspective. Geochem. Perspect. 2014, 3, 129–341</t>
+  </si>
+  <si>
+    <t>By-product (Al)</t>
+  </si>
+  <si>
+    <t>Kleijn, R.; Van Der Voet, E. Resource constraints in a hydrogen economy based on renewable energy sources: An exploration. Renew. Sustain. Energy Rev. 2010, 14, 2784–2795. ; USGS 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclus, car beaucoup plus important que le reste </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>1 522 558 857</t>
+  </si>
+  <si>
+    <t>4 745 983</t>
+  </si>
+  <si>
+    <t>Lithium</t>
+  </si>
+  <si>
+    <t>19 276 626</t>
+  </si>
+  <si>
+    <t>283 582</t>
+  </si>
+  <si>
+    <t>2 491 866</t>
+  </si>
+  <si>
+    <t>93 509</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Kondo, S.; Takeyama, A.; Okura, T. A study on the Forecasts of Supply and Demand of Platinum Group Metals. Shigen-to-Sozai 2006, 122, 386–395.</t>
+  </si>
+  <si>
+    <t>Praseodymium</t>
+  </si>
+  <si>
+    <t>Rare Earth</t>
+  </si>
+  <si>
+    <t>By-product (Cu)</t>
+  </si>
+  <si>
+    <t>3 334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoir par rapport au ciment ? </t>
+  </si>
+  <si>
+    <t>proxy cement, exclus PV, contenu silicon dans ciment</t>
+  </si>
+  <si>
+    <t>26 247 889</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>1 682</t>
+  </si>
+  <si>
+    <t>By-product (Cu, Pb)</t>
+  </si>
+  <si>
+    <t>277 291</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
+    <t>87 507</t>
+  </si>
+  <si>
+    <t>105 776</t>
+  </si>
+  <si>
+    <t>12 608 299</t>
+  </si>
+  <si>
+    <t>By-product</t>
+  </si>
+  <si>
+    <t>Choice</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The general methodology was to take the mean value of production data of each metal, except for the studies that were excluded in the choice column </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metals </t>
+  </si>
+  <si>
+    <t>RR prod</t>
+  </si>
+  <si>
+    <t>RR reserve</t>
+  </si>
+  <si>
+    <t>(Charpentier-Poncelet, 2022)</t>
+  </si>
+  <si>
+    <t>(Nassar &amp; al., 2022)</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Charpentier Poncelet, A., Helbig, C., Loubet, P., Beylot, A., Muller, S., Villeneuve, J., Laratte, B., Thorenz, A., Tuma, A., &amp; Sonnemann, G. (2022). Losses and lifetimes of metals in the economy. Nature Sustainability, 5(8), 717‑726. https://doi.org/10.1038/s41893-022-00895-8</t>
+  </si>
+  <si>
+    <t>Nassar, N. T., Lederer, G. W., Brainard, J. L., Padilla, A. J., &amp; Lessard, J. D. (2022). Rock-to-Metal Ratio : A Foundational Metric for Understanding Mine Wastes. Environmental Science &amp; Technology, 56(10), 6710‑6721. https://doi.org/10.1021/acs.est.1c07875</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germanium </t>
+  </si>
+  <si>
+    <t>Silicium</t>
+  </si>
+  <si>
+    <t>(Lundaev et al., 2023)</t>
+  </si>
+  <si>
+    <t>(Lundaev et al., 2023), (Mineral Commodity Summaries 2023, 2023)</t>
+  </si>
+  <si>
+    <t>(Mineral Commodity Summaries 2023, 2023)</t>
+  </si>
+  <si>
+    <t>(Watari et al., 2018), (Mineral Commodity Summaries 2023, 2023)</t>
+  </si>
+  <si>
+    <t>(Watari et al., 2018)</t>
+  </si>
+  <si>
+    <t>Lundaev, V., Solomon, A. A., Le, T., Lohrmann, A., &amp; Breyer, C. (2023). Review of critical materials for the energy transition, an analysis of global resources and production databases and the state of material circularity. Minerals Engineering, 203, 108282. https://doi.org/10.1016/j.mineng.2023.108282</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Watari, T., McLellan, B., Ogata, S., &amp; Tezuka, T. (2018). Analysis of Potential for Critical Metal Resource Constraints in the International Energy Agency’s Long-Term Low-Carbon Energy Scenarios. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Minerals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(4), 156. https://doi.org/10.3390/min8040156</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -267,7 +553,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,16 +583,109 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -329,13 +708,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -370,13 +763,84 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -861,8 +1325,8 @@
       <sheetName val="RR study"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="2">
           <cell r="B2">
             <v>0.90813874280952489</v>
@@ -1264,6 +1728,640 @@
         <row r="33">
           <cell r="B33">
             <v>1040010.40626099</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Presentation of Contents"/>
+      <sheetName val="1. Data - Process yields (m)"/>
+      <sheetName val="2. Data - Process yields (p,m)"/>
+      <sheetName val="Feuil1"/>
+      <sheetName val="3. Data - End uses"/>
+      <sheetName val="4. Data - Production statistics"/>
+      <sheetName val="5. Result - Stocks and Losses"/>
+      <sheetName val="6. Result - Stock Uncertainty"/>
+      <sheetName val="7. Result - LossShare per Phase"/>
+      <sheetName val="8. Result - Lifetime &amp; LossRate"/>
+      <sheetName val="9. Result - Extraction &amp; Stocks"/>
+      <sheetName val="10. Result - Sankey diagrams"/>
+      <sheetName val="11. Loss rates, EOL-RR &amp; RC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1">
+        <row r="2">
+          <cell r="G2">
+            <v>62855762000</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4">
+            <v>4164758000</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="G5">
+            <v>23697000</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="G6">
+            <v>15914256000</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="G7">
+            <v>125158000</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="G10">
+            <v>20673358000</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="G11">
+            <v>1352550.75930137</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="G12">
+            <v>374000</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="G13">
+            <v>95000</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>75000</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
+            <v>821600</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16">
+            <v>1498540724400</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17">
+            <v>4787351800</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18">
+            <v>139330200</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="H19">
+            <v>8039540298.4603729</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21">
+            <v>18096266800</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="H23">
+            <v>276493000</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="H24">
+            <v>22378127.895679139</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="H25">
+            <v>2247409000</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="H26">
+            <v>102516000</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="H30">
+            <v>6869026.0350574059</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="H31">
+            <v>3287800</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="H32">
+            <v>3000000000</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="H33">
+            <v>27802768.800000001</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="H35">
+            <v>1836600</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="H39">
+            <v>556200</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="H40">
+            <v>289335.71082765475</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="H44">
+            <v>309863200</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="H45">
+            <v>86273400</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="H51">
+            <v>85066600</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="H52">
+            <v>6974992.5473812688</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="H53">
+            <v>12776242000</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="H61">
+            <v>1125031218.78297</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Comparison datas literature"/>
+      <sheetName val="RR study"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="E3">
+            <v>0.1207034372502002</v>
+          </cell>
+          <cell r="F3">
+            <v>9.1861257190475124E-2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0.22400000000000009</v>
+          </cell>
+          <cell r="F4">
+            <v>3.8799999999999973E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0.23724024666498891</v>
+          </cell>
+          <cell r="F5">
+            <v>2.0939291335455188E-3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>0.24855491329479801</v>
+          </cell>
+          <cell r="F6">
+            <v>0.1078208015392596</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>0.56065343431302173</v>
+          </cell>
+          <cell r="F7">
+            <v>2.9350440803017779E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>0.16525423728813571</v>
+          </cell>
+          <cell r="F8">
+            <v>2.2483444789125701E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>0.33781880980422041</v>
+          </cell>
+          <cell r="F9">
+            <v>0.1655452975489449</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>0.59849999999999992</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>0.99342251950947602</v>
+          </cell>
+          <cell r="F11">
+            <v>-1.283385026594014E-21</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>0.99728260869565211</v>
+          </cell>
+          <cell r="F12">
+            <v>1.358695652173916E-4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>0.70000000000000007</v>
+          </cell>
+          <cell r="F13">
+            <v>0.16724772995028389</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>0.1259105098855359</v>
+          </cell>
+          <cell r="F14">
+            <v>-2.7384171319422291E-16</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>0.1079545454545454</v>
+          </cell>
+          <cell r="F15">
+            <v>4.2603018053958087E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>0.32075000000000009</v>
+          </cell>
+          <cell r="F16">
+            <v>5.9240046959196088E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>0.30000000000000032</v>
+          </cell>
+          <cell r="F17">
+            <v>3.5718851546026803E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>0.3999999999999998</v>
+          </cell>
+          <cell r="F18">
+            <v>9.3965255086335186E-17</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>0.40145608601003208</v>
+          </cell>
+          <cell r="F19">
+            <v>3.4537873324146227E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>0.212445003142677</v>
+          </cell>
+          <cell r="F20">
+            <v>5.5361635934991042E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>0.29000000000000031</v>
+          </cell>
+          <cell r="F21">
+            <v>7.7626860125079897E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>0.40457508317658741</v>
+          </cell>
+          <cell r="F22">
+            <v>9.7088802250185194E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>0.95500185942729643</v>
+          </cell>
+          <cell r="F23">
+            <v>5.4682177881372361E-3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>0.2</v>
+          </cell>
+          <cell r="F24">
+            <v>8.0000000000000016E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>0.1574344023323615</v>
+          </cell>
+          <cell r="F25">
+            <v>-1.7547819705730511E-16</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>0.32082932799999991</v>
+          </cell>
+          <cell r="F26">
+            <v>1.94427257148827E-3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>0.95499549954995511</v>
+          </cell>
+          <cell r="F27">
+            <v>1.004993006253669E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>0.353901241777974</v>
+          </cell>
+          <cell r="F28">
+            <v>0.13497320755234221</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>0.1176470588235294</v>
+          </cell>
+          <cell r="F29">
+            <v>7.5683809897146622E-3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>0.67128737336298527</v>
+          </cell>
+          <cell r="F30">
+            <v>0.1097225253857767</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>0.1142857142857142</v>
+          </cell>
+          <cell r="F31">
+            <v>5.2327479125914857E-18</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>0.33592390891314222</v>
+          </cell>
+          <cell r="F32">
+            <v>0.107170297289293</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>0.1621983914209118</v>
+          </cell>
+          <cell r="F33">
+            <v>2.4317266259321731E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>0.14499999999999999</v>
+          </cell>
+          <cell r="F34">
+            <v>4.396112910689496E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>0.90813874280952489</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.96120000000000005</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.99790607086645444</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.89217919846074034</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.97064955919698226</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.97751655521087433</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.83445470245105513</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0.99986413043478262</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0.83275227004971608</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>1.0000000000000002</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>0.95739698194604195</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>0.94075995304080395</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>0.96428114845397317</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>0.99999999999999989</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>0.96546212667585374</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0.94463836406500901</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>0.92237313987492009</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>0.90291119774981476</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>0.99453178221186278</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>0.91999999999999993</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>1.0000000000000002</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>0.99805572742851179</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>0.98995006993746326</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>0.86502679244765779</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>0.99243161901028532</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>0.89027747461422324</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>0.89282970271070705</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>0.97568273374067827</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>0.95603887089310502</v>
           </cell>
         </row>
       </sheetData>
@@ -1535,11 +2633,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Feuil1"/>
+  <sheetPr codeName="Feuil1">
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1547,7 +2647,7 @@
     <col min="1" max="1" width="11.81640625" customWidth="1"/>
     <col min="3" max="3" width="18.08984375" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.08984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" customWidth="1"/>
     <col min="6" max="6" width="16.26953125" customWidth="1"/>
     <col min="7" max="7" width="14.6328125" customWidth="1"/>
   </cols>
@@ -2474,10 +3574,3232 @@
     <sortCondition ref="A1:A33"/>
   </sortState>
   <conditionalFormatting sqref="A15:A22">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AB171D-8E5C-459A-846E-AD8511967BBB}">
+  <sheetPr>
+    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="57.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1">
+        <v>30000000000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12000000000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C3" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5700000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>690000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12000000000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>560000000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25000000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8300000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2100000000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>890000000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4009000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>544000</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="1">
+        <v>13845000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1513000</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C10" s="1">
+        <v>36000</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C11" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1">
+        <v>356000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>21000</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="40">
+        <v>230000000000</v>
+      </c>
+      <c r="C13" s="40">
+        <v>230000000000</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2000000000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>85000000</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C15" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1">
+        <v>17273000000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1500000000</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1">
+        <v>25400000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16000000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1">
+        <v>62433000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16070000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="1">
+        <v>300000000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>95000000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C20" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1">
+        <v>19847000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4718000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="1">
+        <v>171000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C23" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C24" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>550000</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C26" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1">
+        <v>48000</v>
+      </c>
+      <c r="C27" s="1">
+        <v>32000</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1">
+        <v>827000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>102000</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4600000</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3800000</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="1">
+        <v>63000000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>24000000</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1">
+        <v>32329000</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3120000</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1900000000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>250000000</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="40" t="e">
+        <f>#N/A</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C34" s="1">
+        <v>68000000</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D705B69-69BB-40C1-83B7-9B22D9ADAF8D}">
+  <sheetPr>
+    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="A1:H130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6328125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" customWidth="1"/>
+    <col min="6" max="6" width="46.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="19">
+        <v>65100000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="19">
+        <v>380000000</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="19">
+        <v>57500000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="9">
+        <f>'[4]4. Data - Production statistics'!$G$2/1000</f>
+        <v>62855762</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="9">
+        <f>'[4]4. Data - Production statistics'!$G$4/1000</f>
+        <v>4164758</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="19">
+        <v>24000</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="19">
+        <v>24000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="9">
+        <f>'[4]4. Data - Production statistics'!$G$5/1000</f>
+        <v>23697</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="19">
+        <v>37000000</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="19">
+        <v>41000000</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="9">
+        <f>'[4]4. Data - Production statistics'!$G$6/1000</f>
+        <v>15914256</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="19">
+        <v>142000</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="19">
+        <v>110000</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="19">
+        <v>190000</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="19">
+        <v>126000</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9">
+        <f>'[4]4. Data - Production statistics'!$G$7/1000</f>
+        <v>125158</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="19">
+        <v>20600000</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="19">
+        <v>19700000</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="19">
+        <v>19100000</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="9">
+        <f>'[4]4. Data - Production statistics'!$G$10/1000</f>
+        <v>20673358</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="19">
+        <v>1120</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="19">
+        <v>1350</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="19">
+        <v>1800</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="9">
+        <f>'[4]4. Data - Production statistics'!$G$11/1000</f>
+        <v>1352.5507593013699</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="19">
+        <v>330</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="19">
+        <v>555</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="19">
+        <v>550</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="19">
+        <v>400</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="23">
+        <v>304</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="9">
+        <f>'[4]4. Data - Production statistics'!$G$12/1000</f>
+        <v>374</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="19">
+        <v>140</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="23">
+        <v>96</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="9">
+        <f>'[4]4. Data - Production statistics'!$G$13/1000</f>
+        <v>95</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$14/1000</f>
+        <v>75</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="19">
+        <v>960</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="19">
+        <v>720</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="19">
+        <v>900</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="19">
+        <v>800</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="23">
+        <v>944</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$15/1000</f>
+        <v>821.6</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$16/1000</f>
+        <v>1498540724.4000001</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$17/1000</f>
+        <v>4787351.8</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="19">
+        <v>83000</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="19">
+        <v>43000</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="19">
+        <v>130000</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="19">
+        <v>32000</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$18/1000</f>
+        <v>139330.20000000001</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$19/1000</f>
+        <v>8039540.2984603727</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="19">
+        <v>18900000</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="19">
+        <v>20000000</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$21/1000</f>
+        <v>18096266.800000001</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="19">
+        <v>298000</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$23/1000</f>
+        <v>276493</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="19">
+        <v>34000</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="19">
+        <v>21000</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="19">
+        <v>16000</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$24/1000</f>
+        <v>22378.127895679139</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="19">
+        <v>2510000</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="19">
+        <v>2100000</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="19">
+        <v>3300000</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="19">
+        <v>2280000</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$25/1000</f>
+        <v>2247409</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77" s="19">
+        <v>79000</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$26/1000</f>
+        <v>102516</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" s="19">
+        <v>210</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B81" s="19">
+        <v>200</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="19">
+        <v>200</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="19">
+        <v>10000</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$30/1000</f>
+        <v>6869.0260350574063</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="19">
+        <v>300000</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="19">
+        <v>3120</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" s="19">
+        <v>3300</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="19">
+        <v>2200</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$31/1000</f>
+        <v>3287.8</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B91" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$32/1000</f>
+        <v>3000000</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="19">
+        <v>24000</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B93" s="19">
+        <v>25000</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B94" s="19">
+        <v>25000</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$33/1000</f>
+        <v>27802.768800000002</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="19">
+        <v>2280000000</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98" s="19">
+        <v>2000</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$35/1000</f>
+        <v>1836.6</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" s="19">
+        <v>560</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" s="19">
+        <v>420</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" s="19">
+        <v>640</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="19">
+        <v>200</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" s="23">
+        <v>444</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$39/1000</f>
+        <v>556.20000000000005</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="19">
+        <v>310</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$40/1000</f>
+        <v>289.33571082765474</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" s="19">
+        <v>95000</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$44/1000</f>
+        <v>309863.2</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" s="19">
+        <v>5154000</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="19">
+        <v>84000</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$45/1000</f>
+        <v>86273.4</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B116" s="19">
+        <v>105000</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" s="19">
+        <v>100000</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$51/1000</f>
+        <v>85066.6</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="19">
+        <v>6420</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A121" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A122" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B122" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$52/1000</f>
+        <v>6974.9925473812691</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" s="19">
+        <v>12000000</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B126" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$53/1000</f>
+        <v>12776242</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B127" s="19">
+        <v>595000</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A128" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B128" s="19">
+        <v>1400000</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A129" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B129" s="9">
+        <f>'[4]4. Data - Production statistics'!$H$61/1000</f>
+        <v>1125031.21878297</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A130" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B130" s="19">
+        <v>595</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16262F40-B060-450F-91E2-69B838DA0923}">
+  <sheetPr>
+    <tabColor theme="0" tint="-4.9989318521683403E-2"/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="25.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="33">
+        <f>1-'[5]Comparison datas literature'!F3</f>
+        <v>0.90813874280952489</v>
+      </c>
+      <c r="C2" s="33">
+        <f>(1-'[5]Comparison datas literature'!E3)*'[5]RR study'!B2</f>
+        <v>0.79852327505233978</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="33">
+        <f>1-'[5]Comparison datas literature'!F4</f>
+        <v>0.96120000000000005</v>
+      </c>
+      <c r="C3" s="33">
+        <f>(1-'[5]Comparison datas literature'!E4)*'[5]RR study'!B3</f>
+        <v>0.74589119999999998</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="33">
+        <f>1-'[5]Comparison datas literature'!F5</f>
+        <v>0.99790607086645444</v>
+      </c>
+      <c r="C4" s="33">
+        <f>(1-'[5]Comparison datas literature'!E5)*'[5]RR study'!B4</f>
+        <v>0.76116258846560692</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="33">
+        <f>1-'[5]Comparison datas literature'!F6</f>
+        <v>0.89217919846074034</v>
+      </c>
+      <c r="C5" s="33">
+        <f>(1-'[5]Comparison datas literature'!E6)*'[5]RR study'!B5</f>
+        <v>0.67042367514390866</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="33">
+        <f>1-'[5]Comparison datas literature'!F7</f>
+        <v>0.97064955919698226</v>
+      </c>
+      <c r="C6" s="33">
+        <f>(1-'[5]Comparison datas literature'!E7)*'[5]RR study'!B6</f>
+        <v>0.42645155031877346</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="33">
+        <f>1-'[5]Comparison datas literature'!F8</f>
+        <v>0.97751655521087433</v>
+      </c>
+      <c r="C7" s="33">
+        <f>(1-'[5]Comparison datas literature'!E8)*'[5]RR study'!B7</f>
+        <v>0.81597780244297546</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="33">
+        <f>1-'[5]Comparison datas literature'!F9</f>
+        <v>0.83445470245105513</v>
+      </c>
+      <c r="C8" s="33">
+        <f>(1-'[5]Comparison datas literature'!E9)*'[5]RR study'!B8</f>
+        <v>0.55256020803350481</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="35">
+        <v>0.95</v>
+      </c>
+      <c r="C9" s="36">
+        <f>'[5]Comparison datas literature'!D10</f>
+        <v>0.59849999999999992</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="33">
+        <f>1-'[5]Comparison datas literature'!F11</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="33">
+        <f>(1-'[5]Comparison datas literature'!E11)*'[5]RR study'!B10</f>
+        <v>6.5774804905239792E-3</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="33">
+        <f>1-'[5]Comparison datas literature'!F12</f>
+        <v>0.99986413043478262</v>
+      </c>
+      <c r="C11" s="33">
+        <f>(1-'[5]Comparison datas literature'!E12)*'[5]RR study'!B11</f>
+        <v>2.7170220935728464E-3</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="33">
+        <f>1-'[5]Comparison datas literature'!F13</f>
+        <v>0.83275227004971608</v>
+      </c>
+      <c r="C12" s="37">
+        <f>(1-'[5]Comparison datas literature'!E13)*'[5]RR study'!B12</f>
+        <v>0.24982568101491476</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="33">
+        <f>1-'[5]Comparison datas literature'!F14</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C13" s="33">
+        <f>(1-'[5]Comparison datas literature'!E14)*'[5]RR study'!B13</f>
+        <v>0.87408949011446435</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="33">
+        <f>1-'[5]Comparison datas literature'!F15</f>
+        <v>0.95739698194604195</v>
+      </c>
+      <c r="C14" s="33">
+        <f>(1-'[5]Comparison datas literature'!E15)*'[5]RR study'!B14</f>
+        <v>0.85404162594050337</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="33">
+        <f>1-'[5]Comparison datas literature'!F16</f>
+        <v>0.94075995304080395</v>
+      </c>
+      <c r="C15" s="33">
+        <f>(1-'[5]Comparison datas literature'!E16)*'[5]RR study'!B15</f>
+        <v>0.63901119810296603</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="33">
+        <f>1-'[5]Comparison datas literature'!F17</f>
+        <v>0.96428114845397317</v>
+      </c>
+      <c r="C16" s="33">
+        <f>(1-'[5]Comparison datas literature'!E17)*'[5]RR study'!B16</f>
+        <v>0.67499680391778094</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="33">
+        <f>1-'[5]Comparison datas literature'!F18</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="C17" s="33">
+        <f>(1-'[5]Comparison datas literature'!E18)*'[5]RR study'!B17</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="33">
+        <f>1-'[5]Comparison datas literature'!F19</f>
+        <v>0.96546212667585374</v>
+      </c>
+      <c r="C18" s="33">
+        <f>(1-'[5]Comparison datas literature'!E19)*'[5]RR study'!B18</f>
+        <v>0.57787148010964373</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="33">
+        <f>1-'[5]Comparison datas literature'!F20</f>
+        <v>0.94463836406500901</v>
+      </c>
+      <c r="C19" s="33">
+        <f>(1-'[5]Comparison datas literature'!E20)*'[5]RR study'!B19</f>
+        <v>0.74395466384252495</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="33">
+        <f>1-'[5]Comparison datas literature'!F21</f>
+        <v>0.92237313987492009</v>
+      </c>
+      <c r="C20" s="33">
+        <f>(1-'[5]Comparison datas literature'!E21)*'[5]RR study'!B20</f>
+        <v>0.65488492931119302</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="33">
+        <f>1-'[5]Comparison datas literature'!F22</f>
+        <v>0.90291119774981476</v>
+      </c>
+      <c r="C21" s="33">
+        <f>(1-'[5]Comparison datas literature'!E22)*'[5]RR study'!B21</f>
+        <v>0.5376158248191113</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="33">
+        <f>1-'[5]Comparison datas literature'!F23</f>
+        <v>0.99453178221186278</v>
+      </c>
+      <c r="C22" s="37">
+        <f>(1-'[5]Comparison datas literature'!E23)*'[5]RR study'!B22</f>
+        <v>4.4752080939990814E-2</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="33">
+        <f>1-'[5]Comparison datas literature'!F24</f>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="C23" s="33">
+        <f>(1-'[5]Comparison datas literature'!E24)*'[5]RR study'!B23</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="33">
+        <f>1-'[5]Comparison datas literature'!F25</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C24" s="33">
+        <f>(1-'[5]Comparison datas literature'!E25)*'[5]RR study'!B24</f>
+        <v>0.84256559766763872</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="33">
+        <f>1-'[5]Comparison datas literature'!F26</f>
+        <v>0.99805572742851179</v>
+      </c>
+      <c r="C25" s="33">
+        <f>(1-'[5]Comparison datas literature'!E26)*'[5]RR study'!B25</f>
+        <v>0.67785017909107137</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="33">
+        <f>1-'[5]Comparison datas literature'!F27</f>
+        <v>0.98995006993746326</v>
+      </c>
+      <c r="C26" s="37">
+        <f>(1-'[5]Comparison datas literature'!E27)*'[5]RR study'!B26</f>
+        <v>4.4552208368022539E-2</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="33">
+        <f>1-'[5]Comparison datas literature'!F28</f>
+        <v>0.86502679244765779</v>
+      </c>
+      <c r="C27" s="33">
+        <f>(1-'[5]Comparison datas literature'!E28)*'[5]RR study'!B27</f>
+        <v>0.55889273642921389</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="33">
+        <f>1-'[5]Comparison datas literature'!F29</f>
+        <v>0.99243161901028532</v>
+      </c>
+      <c r="C28" s="33">
+        <f>(1-'[5]Comparison datas literature'!E29)*'[5]RR study'!B28</f>
+        <v>0.87567495795025174</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="33">
+        <f>1-'[5]Comparison datas literature'!F30</f>
+        <v>0.89027747461422324</v>
+      </c>
+      <c r="C29" s="33">
+        <f>(1-'[5]Comparison datas literature'!E30)*'[5]RR study'!B29</f>
+        <v>0.29264544711620954</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="33">
+        <f>1-'[5]Comparison datas literature'!F31</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="33">
+        <f>(1-'[5]Comparison datas literature'!E31)*'[5]RR study'!B30</f>
+        <v>0.88571428571428579</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="33">
+        <f>1-'[5]Comparison datas literature'!F32</f>
+        <v>0.89282970271070705</v>
+      </c>
+      <c r="C31" s="33">
+        <f>(1-'[5]Comparison datas literature'!E32)*'[5]RR study'!B31</f>
+        <v>0.59290685898236761</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="33">
+        <f>1-'[5]Comparison datas literature'!F33</f>
+        <v>0.97568273374067827</v>
+      </c>
+      <c r="C32" s="33">
+        <f>(1-'[5]Comparison datas literature'!E33)*'[5]RR study'!B32</f>
+        <v>0.81742856379078255</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="33">
+        <f>1-'[5]Comparison datas literature'!F34</f>
+        <v>0.95603887089310502</v>
+      </c>
+      <c r="C33" s="33">
+        <f>(1-'[5]Comparison datas literature'!E34)*'[5]RR study'!B33</f>
+        <v>0.81741323461360482</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A15:A22">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="https://doi.org/10.1038/s41893-022-00895-8" xr:uid="{1898F6C3-ECEA-4F3C-8914-468A46235B04}"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://doi.org/10.1021/acs.est.1c07875" xr:uid="{422EFCDA-4B41-4D7F-842A-E899A1CE3425}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>